--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
@@ -2438,9 +2438,6 @@
       <c r="D56" t="s">
         <v>141</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56" t="s">
         <v>235</v>
       </c>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-04-30</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220430_110005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="262">
   <si>
     <t>사이트</t>
   </si>
@@ -724,7 +724,7 @@
     <t>SHOFAR</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>해외</t>
@@ -800,9 +800,6 @@
   </si>
   <si>
     <t>FNC</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1264,7 @@
         <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1293,7 +1290,7 @@
         <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1319,7 +1316,7 @@
         <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1371,7 +1368,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1423,7 +1420,7 @@
         <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1449,7 +1446,7 @@
         <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1475,7 +1472,7 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1527,7 +1524,7 @@
         <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1553,7 +1550,7 @@
         <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1579,7 +1576,7 @@
         <v>233</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1605,7 +1602,7 @@
         <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1631,7 +1628,7 @@
         <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1657,7 +1654,7 @@
         <v>227</v>
       </c>
       <c r="H19" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1683,7 +1680,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1709,7 +1706,7 @@
         <v>227</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1761,7 +1758,7 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1787,7 +1784,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1813,7 +1810,7 @@
         <v>227</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1839,7 +1836,7 @@
         <v>227</v>
       </c>
       <c r="H26" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1865,7 +1862,7 @@
         <v>239</v>
       </c>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1891,7 +1888,7 @@
         <v>227</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1917,7 +1914,7 @@
         <v>240</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1943,7 +1940,7 @@
         <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1969,7 +1966,7 @@
         <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1995,7 +1992,7 @@
         <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2021,7 +2018,7 @@
         <v>238</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2047,7 +2044,7 @@
         <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2099,7 +2096,7 @@
         <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2125,7 +2122,7 @@
         <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2151,7 +2148,7 @@
         <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2177,7 +2174,7 @@
         <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2203,7 +2200,7 @@
         <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2255,7 +2252,7 @@
         <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2281,7 +2278,7 @@
         <v>225</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2333,7 +2330,7 @@
         <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2359,7 +2356,7 @@
         <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2411,7 +2408,7 @@
         <v>246</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2437,7 +2434,7 @@
         <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2463,7 +2460,7 @@
         <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2489,7 +2486,7 @@
         <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2515,7 +2512,7 @@
         <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2567,7 +2564,7 @@
         <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2616,7 +2613,7 @@
         <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2668,7 +2665,7 @@
         <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2694,7 +2691,7 @@
         <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2720,7 +2717,7 @@
         <v>250</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2746,7 +2743,7 @@
         <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2824,7 +2821,7 @@
         <v>251</v>
       </c>
       <c r="H64" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2850,7 +2847,7 @@
         <v>240</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2876,7 +2873,7 @@
         <v>239</v>
       </c>
       <c r="H66" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2902,7 +2899,7 @@
         <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2928,7 +2925,7 @@
         <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2954,7 +2951,7 @@
         <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2980,7 +2977,7 @@
         <v>236</v>
       </c>
       <c r="H70" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3032,7 +3029,7 @@
         <v>242</v>
       </c>
       <c r="H72" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3058,7 +3055,7 @@
         <v>254</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3084,7 +3081,7 @@
         <v>239</v>
       </c>
       <c r="H74" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3110,7 +3107,7 @@
         <v>232</v>
       </c>
       <c r="H75" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3162,7 +3159,7 @@
         <v>255</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3188,7 +3185,7 @@
         <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3214,7 +3211,7 @@
         <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3240,7 +3237,7 @@
         <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3292,7 +3289,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3318,7 +3315,7 @@
         <v>256</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3422,7 +3419,7 @@
         <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3448,7 +3445,7 @@
         <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3474,7 +3471,7 @@
         <v>237</v>
       </c>
       <c r="H89" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3526,7 +3523,7 @@
         <v>236</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3552,7 +3549,7 @@
         <v>258</v>
       </c>
       <c r="H92" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3578,7 +3575,7 @@
         <v>259</v>
       </c>
       <c r="H93" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3604,7 +3601,7 @@
         <v>236</v>
       </c>
       <c r="H94" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3630,7 +3627,7 @@
         <v>236</v>
       </c>
       <c r="H95" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3656,7 +3653,7 @@
         <v>260</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3682,7 +3679,7 @@
         <v>232</v>
       </c>
       <c r="H97" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3708,7 +3705,7 @@
         <v>252</v>
       </c>
       <c r="H98" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3734,7 +3731,7 @@
         <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3760,7 +3757,7 @@
         <v>232</v>
       </c>
       <c r="H100" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3786,7 +3783,7 @@
         <v>261</v>
       </c>
       <c r="H101" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
